--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\work\Probe IPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61220CAF-FA2A-4CD4-8FB8-451BE771916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73AED7D-13A7-44CF-80A1-49F477DAA035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CAB523D8-2816-42BA-A386-32AC48A4B112}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Phase initialisierung</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Variantenentscheid</t>
   </si>
   <si>
-    <t>Flowchart</t>
-  </si>
-  <si>
     <t>Allgemeines Layout Mein Dashboard</t>
   </si>
   <si>
@@ -180,13 +177,22 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>in h</t>
+  </si>
+  <si>
+    <t>Zeitplan</t>
+  </si>
+  <si>
+    <t>Tests durchführen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +290,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -338,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -528,6 +543,21 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -543,18 +573,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -563,14 +587,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,34 +596,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,12 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -647,9 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,35 +657,88 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
@@ -737,13 +774,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -812,13 +849,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -885,16 +922,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482413</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -909,8 +946,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="1409700"/>
-          <a:ext cx="219075" cy="219075"/>
+          <a:off x="4863913" y="1826559"/>
+          <a:ext cx="248211" cy="222436"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -960,15 +997,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -984,8 +1021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7810500" y="3790950"/>
-          <a:ext cx="219075" cy="219075"/>
+          <a:off x="6692152" y="3451412"/>
+          <a:ext cx="214593" cy="201706"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1333,15 +1370,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7515A59F-31E0-4997-9EE6-47EA111E0C20}">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1349,928 +1387,982 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="21" t="s">
+      <c r="A2" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="59"/>
+      <c r="J2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="59"/>
+      <c r="L2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="22"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="19" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="19" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="20"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="19" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="20"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="55" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52"/>
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="27">
         <v>2</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D10" s="25"/>
+      <c r="E10" s="24">
         <v>2</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="16" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="52"/>
+      <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="45">
+      <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="41" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="30">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C12" s="8">
+        <v>4</v>
+      </c>
+      <c r="D12" s="23">
         <v>2</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="39">
+      <c r="E12" s="23">
         <v>2</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="16" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="46">
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="30">
         <v>2</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="E13" s="30">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="23">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52"/>
+      <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="36">
+      <c r="C15" s="2">
+        <f>G15</f>
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="23">
         <v>2</v>
       </c>
-      <c r="E12" s="36">
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="30">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="16" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="61"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="22"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="46">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="23">
         <v>2</v>
       </c>
-      <c r="E13" s="46">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="30">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
+      <c r="B27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
+      <c r="B29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42"/>
+      <c r="B31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="48"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="54"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="49"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="52"/>
+      <c r="B35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
+        <f>SUM(E35,G35,I35,K35,M35)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
+        <f>SUM(D37:M37)</f>
+        <v>3.5</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="30">
         <v>1</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="F37" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16" t="s">
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="23">
+        <v>2</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42"/>
+      <c r="B39" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="C39" s="2">
+        <f>K39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="23">
+        <v>4</v>
+      </c>
+      <c r="M40" s="23">
         <v>1</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="53" t="s">
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="52"/>
+      <c r="B41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <f>SUM(F41,L41,M41)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="23">
+        <v>2</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42"/>
+      <c r="B43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2">
+        <f>K43</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="16">
         <v>1</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="32"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="15" t="s">
+    </row>
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="16">
         <v>3</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="16" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="16">
         <v>4</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="36">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="34"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="35"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="36">
-        <v>2</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>4</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="59"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="60"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="36">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="46">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="36">
-        <v>2</v>
-      </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="38">
+        <f>SUM(D28,D28:M28,D34:M34,D36:M36,D38:M38,D40:M40,D30:M30,D26:M26,D24:M24,D22:M22,D18:M18,D14:M14,D12:M12,D10:M10,D8:M8,D42:M42)</f>
+        <v>25</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="3">
-        <v>4</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="36">
-        <v>3</v>
-      </c>
-      <c r="M42" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N47" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="O47" s="62">
-        <f>SUM(D30,D30:M30,D36:M36,D38:M38,D40:M40,D42:M42,D32:M32,D28:M28,D26:M26,D24:M24,D20:M20,D18:M18,D14:M14,D12:M12,D10:M10,D8:M8)</f>
-        <v>20.5</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q47" s="65"/>
-    </row>
-    <row r="48" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N48" s="64" t="s">
+    </row>
+    <row r="53" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="61">
-        <f>SUM(D43:M43,D41:M41,D39:M39,D37:M37,D33:M33,D31:M31,D29:M29,D27:M27,D25:M25,D21:M21,D19:M19,D15:M15,D13:M13,D11:M11,D9:M9)</f>
-        <v>8.5</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="29">
-        <v>4</v>
+      <c r="B53" s="37">
+        <f>SUM(D41:M41,D39:M39,D37:M37,D35:M35,D31:M31,D29:M29,D27:M27,D25:M25,D23:M23,D19:M19,D15:M15,D13:M13,D11:M11,D9:M9,D43:M43)</f>
+        <v>14.16</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D6:F7"/>
-    <mergeCell ref="G22:K23"/>
-    <mergeCell ref="D34:M35"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
+  <mergeCells count="38">
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:C5"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
@@ -2279,19 +2371,29 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="D32:M33"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\work\Probe IPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73AED7D-13A7-44CF-80A1-49F477DAA035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E440EE6-AAF4-469C-B8D7-EF0674E1997D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CAB523D8-2816-42BA-A386-32AC48A4B112}"/>
   </bookViews>
@@ -661,30 +661,69 @@
     <xf numFmtId="2" fontId="12" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,50 +733,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,86 +1387,86 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="58" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="58" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="58" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="58" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="59"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="56" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="56" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="57"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="56" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="56" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="57"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1499,16 +1499,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1518,14 +1518,14 @@
       <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1535,7 +1535,7 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="54" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1558,7 +1558,7 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="64" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -1602,7 +1602,7 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="54" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1694,7 +1694,7 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
@@ -1716,16 +1716,16 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="48" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="47"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -1734,12 +1734,12 @@
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
+      <c r="A17" s="49"/>
       <c r="C17" s="32"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -1748,7 +1748,7 @@
       <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1772,7 +1772,7 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="11" t="s">
         <v>4</v>
       </c>
@@ -1785,7 +1785,9 @@
         <v>1</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="30">
+        <v>1</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1793,39 +1795,39 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="20"/>
       <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+      <c r="A21" s="49"/>
       <c r="C21" s="33"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="20"/>
       <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1848,7 +1850,7 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="11" t="s">
         <v>4</v>
       </c>
@@ -1869,7 +1871,7 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="42" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1890,7 +1892,7 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
@@ -1907,7 +1909,7 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1928,7 +1930,7 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="11" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +1947,7 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="42" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -1966,7 +1968,7 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="11" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +1985,7 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2004,7 +2006,7 @@
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="11" t="s">
         <v>4</v>
       </c>
@@ -2021,41 +2023,41 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="65" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="48"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="60"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="27"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="49"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="62"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="54" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -2086,7 +2088,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="11" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2110,7 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -2129,13 +2131,13 @@
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="2">
         <f>SUM(D37:M37)</f>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="30">
@@ -2144,7 +2146,9 @@
       <c r="F37" s="30">
         <v>2.5</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="30">
+        <v>2</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2153,7 +2157,7 @@
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -2176,7 +2180,7 @@
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="11" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2200,7 @@
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="54" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -2223,7 +2227,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="52"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="11" t="s">
         <v>4</v>
       </c>
@@ -2245,7 +2249,7 @@
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="42" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -2268,7 +2272,7 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="11" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +2352,7 @@
       </c>
       <c r="B53" s="37">
         <f>SUM(D41:M41,D39:M39,D37:M37,D35:M35,D31:M31,D29:M29,D27:M27,D25:M25,D23:M23,D19:M19,D15:M15,D13:M13,D11:M11,D9:M9,D43:M43)</f>
-        <v>14.16</v>
+        <v>17.16</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>46</v>
@@ -2356,13 +2360,20 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="D32:M33"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D6:F7"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
@@ -2371,14 +2382,14 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:C5"/>
     <mergeCell ref="A40:A41"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A28:A29"/>
@@ -2386,13 +2397,6 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D6:F7"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="D32:M33"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\work\Probe IPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E440EE6-AAF4-469C-B8D7-EF0674E1997D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B887138-3284-4B8A-B82D-8643E54C7880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CAB523D8-2816-42BA-A386-32AC48A4B112}"/>
   </bookViews>
@@ -80,18 +80,6 @@
     <t>Tag 5</t>
   </si>
   <si>
-    <t>05.12.2023</t>
-  </si>
-  <si>
-    <t>05.12.2024</t>
-  </si>
-  <si>
-    <t>05.12.2025</t>
-  </si>
-  <si>
-    <t>05.12.2026</t>
-  </si>
-  <si>
     <t>Total SOLL:</t>
   </si>
   <si>
@@ -186,6 +174,18 @@
   </si>
   <si>
     <t>Tests durchführen</t>
+  </si>
+  <si>
+    <t>06.12.2023</t>
+  </si>
+  <si>
+    <t>07.12.2024</t>
+  </si>
+  <si>
+    <t>08.12.2025</t>
+  </si>
+  <si>
+    <t>09.12.2026</t>
   </si>
 </sst>
 </file>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7515A59F-31E0-4997-9EE6-47EA111E0C20}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1388,7 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
@@ -1422,19 +1422,19 @@
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G3" s="47"/>
       <c r="H3" s="46" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="46" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M3" s="47"/>
     </row>
@@ -1447,19 +1447,19 @@
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="46" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="46" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="46" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="K4" s="47"/>
       <c r="L4" s="46" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M4" s="47"/>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="A7" s="49"/>
       <c r="B7" s="7"/>
       <c r="C7" s="41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="58"/>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>3</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>3</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>3</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>3</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>3</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>3</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>3</v>
@@ -1884,8 +1884,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="23">
+        <v>2</v>
+      </c>
+      <c r="I24" s="23">
+        <v>2.5</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1901,8 +1905,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="30">
+        <v>2</v>
+      </c>
+      <c r="I25" s="30">
+        <v>1</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1910,7 +1918,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>3</v>
@@ -1940,7 +1948,9 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="30">
+        <v>2</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1948,7 +1958,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>3</v>
@@ -1978,7 +1988,9 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="30">
+        <v>1</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1986,7 +1998,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>3</v>
@@ -2024,12 +2036,12 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="31"/>
       <c r="D32" s="56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="57"/>
@@ -2058,7 +2070,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="54" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>3</v>
@@ -2094,16 +2106,20 @@
       </c>
       <c r="C35" s="2">
         <f>SUM(E35,G35,I35,K35,M35)</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="30">
         <v>0.5</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="30">
+        <v>0.5</v>
+      </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="I35" s="30">
+        <v>0.5</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2111,13 +2127,13 @@
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2137,7 +2153,7 @@
       </c>
       <c r="C37" s="2">
         <f>SUM(D37:M37)</f>
-        <v>5.5</v>
+        <v>8.25</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="30">
@@ -2149,8 +2165,12 @@
       <c r="G37" s="30">
         <v>2</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="H37" s="30">
+        <v>2</v>
+      </c>
+      <c r="I37" s="30">
+        <v>0.75</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2158,7 +2178,7 @@
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>3</v>
@@ -2201,7 +2221,7 @@
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="54" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>3</v>
@@ -2250,7 +2270,7 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>3</v>
@@ -2293,17 +2313,17 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B47" s="16">
         <v>1</v>
@@ -2311,7 +2331,7 @@
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B48" s="16">
         <v>2</v>
@@ -2319,7 +2339,7 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B49" s="16">
         <v>3</v>
@@ -2327,7 +2347,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B50" s="16">
         <v>4</v>
@@ -2336,26 +2356,26 @@
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B52" s="38">
         <f>SUM(D28,D28:M28,D34:M34,D36:M36,D38:M38,D40:M40,D30:M30,D26:M26,D24:M24,D22:M22,D18:M18,D14:M14,D12:M12,D10:M10,D8:M8,D42:M42)</f>
-        <v>25</v>
+        <v>29.5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="40" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B53" s="37">
         <f>SUM(D41:M41,D39:M39,D37:M37,D35:M35,D31:M31,D29:M29,D27:M27,D25:M25,D23:M23,D19:M19,D15:M15,D13:M13,D11:M11,D9:M9,D43:M43)</f>
-        <v>17.16</v>
+        <v>26.91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\work\Probe IPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B887138-3284-4B8A-B82D-8643E54C7880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467B5CCC-3E7B-4B03-BEDF-8C189FED5D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CAB523D8-2816-42BA-A386-32AC48A4B112}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Phase initialisierung</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>09.12.2026</t>
+  </si>
+  <si>
+    <t>Test-Cases umsetzten</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -664,22 +667,61 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,45 +742,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
@@ -774,13 +781,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -849,13 +856,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1370,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7515A59F-31E0-4997-9EE6-47EA111E0C20}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O30" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,86 +1394,86 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="44" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="44" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="60"/>
+      <c r="J2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="44" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="46" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="46" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="46" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="47"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="46" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="46" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="46" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="46" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="47"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1499,16 +1506,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1518,14 +1525,14 @@
       <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="7"/>
       <c r="C7" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1535,7 +1542,7 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1558,7 +1565,7 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1586,7 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -1602,7 +1609,7 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
@@ -1671,7 +1678,7 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1694,7 +1701,7 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
@@ -1716,16 +1723,16 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="59"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -1734,12 +1741,12 @@
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
+      <c r="A17" s="62"/>
       <c r="C17" s="32"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -1748,7 +1755,7 @@
       <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="52" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1772,7 +1779,7 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="11" t="s">
         <v>4</v>
       </c>
@@ -1795,39 +1802,39 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="61" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="20"/>
       <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
+      <c r="A21" s="62"/>
       <c r="C21" s="33"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="20"/>
       <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="52" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1850,7 +1857,7 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="11" t="s">
         <v>4</v>
       </c>
@@ -1871,7 +1878,7 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="52" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1896,11 +1903,14 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <f>SUM(H25,I25)</f>
+        <v>3</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1917,7 +1927,7 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1931,18 +1941,23 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="23">
+        <v>4</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <f>I27</f>
+        <v>2</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1957,7 +1972,7 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="52" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -1972,17 +1987,22 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="J28" s="23">
+        <v>4</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <f>I29</f>
+        <v>1</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1997,7 +2017,7 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="52" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2012,164 +2032,162 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="J30" s="23">
+        <v>2</v>
+      </c>
+      <c r="K30" s="23">
+        <v>1.5</v>
+      </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2">
+        <f>SUM(J31,K31)</f>
+        <v>3</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="30">
+        <v>3</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="67">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="53"/>
+      <c r="B33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="56" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="60"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="62"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="46"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="55"/>
-      <c r="B35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2">
-        <f>SUM(E35,G35,I35,K35,M35)</f>
-        <v>1.5</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="48"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
-        <v>30</v>
+      <c r="A36" s="58" t="s">
+        <v>28</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>31</v>
+      <c r="C36" s="8">
+        <v>2.5</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="23">
+        <v>0.5</v>
+      </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="23">
+        <v>0.5</v>
+      </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="23">
+        <v>0.5</v>
+      </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="23">
+        <v>0.5</v>
+      </c>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="M36" s="23">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="2">
-        <f>SUM(D37:M37)</f>
-        <v>8.25</v>
+        <f>SUM(E37,G37,I37,K37,M37)</f>
+        <v>1.5</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="30">
-        <v>1</v>
-      </c>
-      <c r="F37" s="30">
-        <v>2.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="30">
-        <v>2</v>
-      </c>
-      <c r="H37" s="30">
-        <v>2</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="30">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -2177,14 +2195,14 @@
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
-        <v>40</v>
+      <c r="A38" s="52" t="s">
+        <v>30</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="2">
-        <v>2</v>
+      <c r="C38" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2193,73 +2211,75 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="23">
-        <v>2</v>
-      </c>
+      <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="2">
-        <f>K39</f>
-        <v>0</v>
+        <f>SUM(D39:M39)</f>
+        <v>8.25</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="E39" s="30">
+        <v>1</v>
+      </c>
+      <c r="F39" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="G39" s="30">
+        <v>2</v>
+      </c>
+      <c r="H39" s="30">
+        <v>2</v>
+      </c>
+      <c r="I39" s="30">
+        <v>0.75</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="54" t="s">
-        <v>41</v>
+      <c r="A40" s="52" t="s">
+        <v>40</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="2">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="23">
-        <v>4</v>
-      </c>
-      <c r="M40" s="23">
-        <v>1</v>
-      </c>
+      <c r="K40" s="23">
+        <v>2</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="2">
-        <f>SUM(F41,L41,M41)</f>
-        <v>0.5</v>
+        <f>K41</f>
+        <v>0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="30">
-        <v>0.5</v>
-      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2269,40 +2289,46 @@
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
-        <v>45</v>
+      <c r="A42" s="58" t="s">
+        <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="23">
-        <v>2</v>
-      </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="23">
+        <v>4</v>
+      </c>
+      <c r="M42" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="2">
-        <f>K43</f>
-        <v>0</v>
+        <f>SUM(F43,L43,M43)</f>
+        <v>0.5</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="30">
+        <v>0.5</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2311,81 +2337,142 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="23">
+        <v>2</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="53"/>
+      <c r="B45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2">
+        <f>K45</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="35" t="s">
+    <row r="48" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="35" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="16">
-        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B52" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="39" t="s">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="38">
-        <f>SUM(D28,D28:M28,D34:M34,D36:M36,D38:M38,D40:M40,D30:M30,D26:M26,D24:M24,D22:M22,D18:M18,D14:M14,D12:M12,D10:M10,D8:M8,D42:M42)</f>
-        <v>29.5</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B54" s="38">
+        <f>SUM(D28,D28:M28,D36:M36,D38:M38,D40:M40,D42:M42,D32:M32,D26:M26,D24:M24,D22:M22,D18:M18,D14:M14,D12:M12,D10:M10,D8:M8,D44:M44)</f>
+        <v>38.5</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="40" t="s">
+    <row r="55" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="37">
-        <f>SUM(D41:M41,D39:M39,D37:M37,D35:M35,D31:M31,D29:M29,D27:M27,D25:M25,D23:M23,D19:M19,D15:M15,D13:M13,D11:M11,D9:M9,D43:M43)</f>
+      <c r="B55" s="37">
+        <f>SUM(D43:M43,D41:M41,D39:M39,D37:M37,D33:M33,D29:M29,D27:M27,D25:M25,D23:M23,D19:M19,D15:M15,D13:M13,D11:M11,D9:M9,D45:M45)</f>
         <v>26.91</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="D32:M33"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A22:A23"/>
+  <mergeCells count="39">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
@@ -2394,30 +2481,13 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D6:F7"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="D34:M35"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\work\Probe IPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467B5CCC-3E7B-4B03-BEDF-8C189FED5D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F468A9-658E-4DCC-AE5E-F28B3D700BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CAB523D8-2816-42BA-A386-32AC48A4B112}"/>
   </bookViews>
@@ -667,6 +667,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,10 +746,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
@@ -861,7 +861,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1377,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7515A59F-31E0-4997-9EE6-47EA111E0C20}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,92 +1388,94 @@
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="62"/>
+      <c r="F2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="62"/>
+      <c r="H2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="59" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="59" t="s">
+      <c r="K2" s="62"/>
+      <c r="L2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="60"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="56" t="s">
+      <c r="M2" s="62"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="59"/>
+      <c r="J3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="56" t="s">
+      <c r="K3" s="59"/>
+      <c r="L3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="56" t="s">
+      <c r="M3" s="59"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="59"/>
+      <c r="J4" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="56" t="s">
+      <c r="K4" s="59"/>
+      <c r="L4" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="57"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
+      <c r="M4" s="59"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1504,18 +1506,21 @@
       <c r="M5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="O5" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1523,16 +1528,19 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+      <c r="O6" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="64"/>
       <c r="B7" s="7"/>
       <c r="C7" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1540,9 +1548,15 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1563,17 +1577,23 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="O8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>1.1599999999999999</v>
+        <v>1</v>
       </c>
       <c r="D9" s="29">
-        <v>1.1599999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="9"/>
@@ -1584,9 +1604,15 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="O9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -1607,9 +1633,15 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+      <c r="O10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
       <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
@@ -1629,7 +1661,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1653,8 +1685,18 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="38">
+        <f>SUM(D28,D28:M28,D36:M36,D38:M38,D40:M40,D42:M42,D32:M32,D26:M26,D24:M24,D22:M22,D18:M18,D14:M14,D12:M12,D10:M10,D8:M8,D44:M44)</f>
+        <v>38</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="11" t="s">
         <v>4</v>
@@ -1676,9 +1718,19 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="O13" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="37">
+        <f>SUM(D43:M43,D41:M41,D39:M39,D37:M37,D33:M33,D29:M29,D27:M27,D25:M25,D23:M23,D19:M19,D15:M15,D13:M13,D11:M11,D9:M9,D45:M45)</f>
+        <v>36</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1700,8 +1752,8 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
       <c r="B15" s="11" t="s">
         <v>4</v>
       </c>
@@ -1722,17 +1774,17 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="42"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -1741,12 +1793,12 @@
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
+      <c r="A17" s="64"/>
       <c r="C17" s="32"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -1755,7 +1807,7 @@
       <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="54" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1779,7 +1831,7 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="11" t="s">
         <v>4</v>
       </c>
@@ -1802,39 +1854,39 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="G20" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="20"/>
       <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
+      <c r="A21" s="64"/>
       <c r="C21" s="33"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
       <c r="L21" s="20"/>
       <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="54" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1857,7 +1909,7 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="11" t="s">
         <v>4</v>
       </c>
@@ -1878,7 +1930,7 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1903,7 +1955,7 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
@@ -1927,7 +1979,7 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1950,7 +2002,7 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="11" t="s">
         <v>4</v>
       </c>
@@ -1972,7 +2024,7 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="54" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -1995,7 +2047,7 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="11" t="s">
         <v>4</v>
       </c>
@@ -2017,7 +2069,7 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="54" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2042,7 +2094,7 @@
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="11" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2116,7 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="54" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -2080,65 +2132,70 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="67">
+      <c r="K32" s="42">
         <v>1</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <f>K33</f>
+        <v>0.5</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="9"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="29">
+        <v>0.5</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="56" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="34"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="46"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="48"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="27"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="50"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -2164,18 +2221,16 @@
         <v>0.5</v>
       </c>
       <c r="L36" s="2"/>
-      <c r="M36" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="2">
         <f>SUM(E37,G37,I37,K37,M37)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="30">
@@ -2190,12 +2245,14 @@
         <v>0.5</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="30">
+        <v>0.5</v>
+      </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -2216,13 +2273,13 @@
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="2">
         <f>SUM(D39:M39)</f>
-        <v>8.25</v>
+        <v>11.5</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="30">
@@ -2238,15 +2295,19 @@
         <v>2</v>
       </c>
       <c r="I39" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="J39" s="30">
+        <v>1</v>
+      </c>
+      <c r="K39" s="30">
+        <v>2</v>
+      </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="54" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -2269,7 +2330,7 @@
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="11" t="s">
         <v>4</v>
       </c>
@@ -2289,7 +2350,7 @@
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="60" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -2316,13 +2377,13 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="2">
         <f>SUM(F43,L43,M43)</f>
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2334,11 +2395,15 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="L43" s="30">
+        <v>4</v>
+      </c>
+      <c r="M43" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="54" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -2361,7 +2426,7 @@
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="11" t="s">
         <v>4</v>
       </c>
@@ -2376,76 +2441,11 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="30">
+        <v>0</v>
+      </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="38">
-        <f>SUM(D28,D28:M28,D36:M36,D38:M38,D40:M40,D42:M42,D32:M32,D26:M26,D24:M24,D22:M22,D18:M18,D14:M14,D12:M12,D10:M10,D8:M8,D44:M44)</f>
-        <v>38.5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="37">
-        <f>SUM(D43:M43,D41:M41,D39:M39,D37:M37,D33:M33,D29:M29,D27:M27,D25:M25,D23:M23,D19:M19,D15:M15,D13:M13,D11:M11,D9:M9,D45:M45)</f>
-        <v>26.91</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="39">
